--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/29/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/29/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2902902902902903</v>
+        <v>0.7013701370137014</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>610.6106106106107</v>
+        <v>1122.112211221122</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007307307307307308</v>
+        <v>0.07668766876687669</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8898898898898899</v>
+        <v>0.9429942994299431</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1013.013013013013</v>
+        <v>1434.313431343134</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>419.4194194194195</v>
+        <v>953.1953195319531</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.2182182182182</v>
+        <v>193.3267326732673</v>
       </c>
     </row>
   </sheetData>
